--- a/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,11 +242,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -928,30 +926,115 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -964,94 +1047,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1405,7 +1403,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1673,42 +1671,42 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="66"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:12" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
     </row>
     <row r="16" spans="1:12" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="37"/>
       <c r="G16" s="38" t="s">
         <v>7</v>
@@ -1731,11 +1729,11 @@
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="41" t="s">
         <v>39</v>
       </c>
@@ -1755,13 +1753,13 @@
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="45">
         <v>0.3</v>
       </c>
@@ -1777,13 +1775,13 @@
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="41" t="s">
         <v>44</v>
       </c>
@@ -1799,147 +1797,150 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="55" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="92" t="s">
+      <c r="I21" s="93" t="s">
         <v>56</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="78" t="s">
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="79"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="75">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="65">
         <v>102405500277</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="77"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="73" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="74"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="71" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="72"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="62"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="19">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B15:L15"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B26:D26"/>
@@ -1956,9 +1957,6 @@
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
@@ -62,9 +62,6 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Royality Invoice</t>
-  </si>
-  <si>
     <t>Kindly make the payment through RTGS/NEFT, Our bank wiring details are as mentioned below</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Bookings: {meta:count}</t>
   </si>
   <si>
-    <t xml:space="preserve">247around Royality %    </t>
-  </si>
-  <si>
     <t>ICICI, E5/19, Krishna Nagar, New Delhi - 110051</t>
   </si>
   <si>
@@ -198,6 +192,12 @@
   </si>
   <si>
     <t>{meta:r_st}</t>
+  </si>
+  <si>
+    <t>Royalty Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247around Royalty %    </t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -597,17 +597,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -755,15 +744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -771,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -884,15 +869,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,19 +911,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,9 +984,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,40 +1020,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1400,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1436,13 +1442,13 @@
     <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -1460,7 +1466,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -1472,13 +1478,13 @@
     <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -1490,7 +1496,7 @@
     <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1556,7 +1562,7 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -1572,7 +1578,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
@@ -1592,22 +1598,22 @@
         <v>5</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>8</v>
@@ -1622,37 +1628,37 @@
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="L12" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.2">
@@ -1671,51 +1677,51 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="B14" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:12" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="B15" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:12" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="37"/>
       <c r="G16" s="38" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>8</v>
@@ -1729,37 +1735,37 @@
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="L17" s="44" t="s">
         <v>41</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
+      <c r="B18" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="45">
         <v>0.3</v>
       </c>
@@ -1775,188 +1781,204 @@
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
+      <c r="B19" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J19" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K19" s="49"/>
       <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
+      <c r="B20" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="94"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
+      <c r="B22" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-    </row>
-    <row r="24" spans="1:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="88"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
+      <c r="B24" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="79"/>
     </row>
     <row r="25" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="65">
-        <v>102405500277</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
+      <c r="B25" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="64"/>
+      <c r="B26" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="73">
+        <v>102405500277</v>
+      </c>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="27" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="72"/>
+    </row>
+    <row r="28" spans="1:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="62"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="70"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="19">
-    <mergeCell ref="B24:D24"/>
+  <mergeCells count="21">
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:L28"/>
     <mergeCell ref="E27:L27"/>
     <mergeCell ref="E26:L26"/>
     <mergeCell ref="E25:L25"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t xml:space="preserve">247around Royalty %    </t>
+  </si>
+  <si>
+    <t>Appliance Category</t>
+  </si>
+  <si>
+    <t>Appliance Capacity</t>
+  </si>
+  <si>
+    <t>{booking:appliance_category}</t>
+  </si>
+  <si>
+    <t>{booking:appliance_capacity}</t>
   </si>
 </sst>
 </file>
@@ -756,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -921,12 +933,69 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1009,51 +1078,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,13 +1098,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>290287</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>319318</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>150911</xdr:rowOff>
@@ -1406,26 +1430,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="E11" sqref="E11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1438,124 +1462,140 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="32" t="s">
         <v>3</v>
@@ -1564,32 +1604,36 @@
       <c r="D9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="18" t="s">
         <v>4</v>
@@ -1600,32 +1644,38 @@
       <c r="D11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="I11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="L11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="M11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="N11" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="15" t="s">
         <v>17</v>
@@ -1637,31 +1687,37 @@
         <v>19</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="L12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="6"/>
@@ -1673,312 +1729,344 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
-    </row>
-    <row r="15" spans="1:12" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+    </row>
+    <row r="15" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
-    </row>
-    <row r="16" spans="1:12" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="80"/>
+    </row>
+    <row r="16" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="J16" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="K16" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="L16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="M16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="N16" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="41" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="L17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="M17" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="N17" s="44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="45">
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="45">
         <v>0.3</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47">
+      <c r="J18" s="46"/>
+      <c r="K18" s="47">
         <v>0.15</v>
       </c>
-      <c r="J18" s="48">
+      <c r="L18" s="48">
         <v>0.05</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="41" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="51" t="s">
+      <c r="J19" s="42"/>
+      <c r="K19" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="L19" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="93" t="s">
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="94"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="53"/>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="71"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="95" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="79"/>
-    </row>
-    <row r="25" spans="1:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="98"/>
+    </row>
+    <row r="25" spans="1:16" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="76" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="77"/>
-    </row>
-    <row r="26" spans="1:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="96"/>
+    </row>
+    <row r="26" spans="1:16" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="73">
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="92">
         <v>102405500277</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="75"/>
-    </row>
-    <row r="27" spans="1:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="94"/>
+    </row>
+    <row r="27" spans="1:16" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="71" t="s">
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="72"/>
-    </row>
-    <row r="28" spans="1:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="91"/>
+    </row>
+    <row r="28" spans="1:16" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="69" t="s">
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="70"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="89"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B14:N14"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E26:L26"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Invoice Number: {meta:invoice_id}</t>
   </si>
@@ -141,24 +141,6 @@
   </si>
   <si>
     <t>{meta:msg}</t>
-  </si>
-  <si>
-    <t>{meta:t_sc}</t>
-  </si>
-  <si>
-    <t>{meta:t_asc}</t>
-  </si>
-  <si>
-    <t>{meta:t_pc}</t>
-  </si>
-  <si>
-    <t>{meta:t_ap}</t>
-  </si>
-  <si>
-    <t>{meta:t_rating}</t>
-  </si>
-  <si>
-    <t>247around Royalty %</t>
   </si>
   <si>
     <t>247around Royality Breakup</t>
@@ -277,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -494,19 +476,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -700,21 +669,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -800,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -841,18 +795,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -862,155 +804,152 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1316,189 +1255,189 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="43" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="44"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B4" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="43" t="s">
+      <c r="B4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="44"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="44"/>
+      <c r="B5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="44"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="44"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="44"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="44"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="45"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="2:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="45"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="49"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="2:14" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="31"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1506,10 +1445,10 @@
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="51"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1545,12 +1484,12 @@
       <c r="M13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1586,66 +1525,66 @@
       <c r="M14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="44"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="57"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="59"/>
-    </row>
-    <row r="18" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="8"/>
       <c r="I18" s="4" t="s">
         <v>17</v>
@@ -1659,268 +1598,214 @@
       <c r="L18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="L19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="63" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="43"/>
+    </row>
+    <row r="20" spans="2:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B20" s="75" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B20" s="64" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="L20" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="65"/>
-    </row>
-    <row r="21" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B21" s="64" t="s">
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="66"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="44"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="55"/>
+    </row>
+    <row r="22" spans="2:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B22" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="10" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="17" t="s">
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="52"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
+    </row>
+    <row r="24" spans="2:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B24" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+    </row>
+    <row r="25" spans="2:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B25" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="65"/>
-    </row>
-    <row r="22" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B22" s="64" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="61"/>
+    </row>
+    <row r="26" spans="2:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B26" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="21" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="66"/>
+    </row>
+    <row r="27" spans="2:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B27" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="66"/>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="67"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="68"/>
-    </row>
-    <row r="24" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B24" s="69" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29" t="s">
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="66"/>
+    </row>
+    <row r="28" spans="2:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="B28" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="59"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="68"/>
-    </row>
-    <row r="26" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B26" s="70" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="71"/>
-    </row>
-    <row r="27" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B27" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="73"/>
-    </row>
-    <row r="28" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B28" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="66"/>
-    </row>
-    <row r="29" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B29" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="66"/>
-    </row>
-    <row r="30" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B30" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="79"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
+  <mergeCells count="19">
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
     <mergeCell ref="B16:N16"/>
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G26:N26"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
